--- a/prediccion_analisis.xlsx
+++ b/prediccion_analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cod\cod_HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F535F6F9-FE3A-49A4-A6B8-7C1602A823A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C20BC5-740C-4C86-8DF0-5D34772ACADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-885" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,10 @@
     <t>Intercepto</t>
   </si>
   <si>
-    <t>predicción</t>
-  </si>
-  <si>
     <t>Variable_explicativa</t>
+  </si>
+  <si>
+    <t>predicción calculada</t>
   </si>
 </sst>
 </file>
@@ -194,14 +194,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,6 +208,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,10 +520,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,38 +532,41 @@
     <col min="2" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3">
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
         <v>47.943928404257697</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="8">
+        <f>E2+D27</f>
+        <v>42.834328039601878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4">
-        <f>E1+D27</f>
-        <v>42.834328039601878</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="B3" s="1">
-        <v>3947</v>
+        <v>5594</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,12 +576,13 @@
       <c r="C4" s="2">
         <v>14629096554940.34</v>
       </c>
-      <c r="D4" s="6">
-        <f>C4*B4</f>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D6" si="0">C4*B4</f>
         <v>-2447143402217.8857</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,12 +592,13 @@
       <c r="C5" s="2">
         <v>9369977142826.2188</v>
       </c>
-      <c r="D5" s="6">
-        <f>C5*B5</f>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
         <v>-987443828965.05347</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -598,279 +608,280 @@
       <c r="C6" s="2">
         <v>17232936614768.051</v>
       </c>
-      <c r="D6" s="6">
-        <f>C6*B6</f>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
         <v>3434587231182.8516</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>3.8398386557582911</v>
+        <v>1.1451018636548</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.54152364905956252</v>
-      </c>
-      <c r="D7" s="6">
-        <f>C7*B7</f>
-        <v>-2.0793634406661949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.177734375</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:D24" si="1">C7*B7</f>
+        <v>0.20352396404802109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>2.6794938887782518</v>
+        <v>-1.801492891961479</v>
       </c>
       <c r="C8" s="2">
-        <v>-0.57926840474996422</v>
-      </c>
-      <c r="D8" s="6">
-        <f>C8*B8</f>
-        <v>-1.5521461504898559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.1927496960937327E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16560673235093906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>-1.1531270496674679</v>
+        <v>0.13079278381171511</v>
       </c>
       <c r="C9" s="2">
-        <v>0.54872581998673386</v>
-      </c>
-      <c r="D9" s="6">
-        <f>C9*B9</f>
-        <v>-0.63275058587766453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.31566854306252012</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1287167508935275E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>-0.60781146260992047</v>
+        <v>-0.20506160357077979</v>
       </c>
       <c r="C10" s="2">
-        <v>0.593994140625</v>
-      </c>
-      <c r="D10" s="6">
-        <f>C10*B10</f>
-        <v>-0.36103644739500401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.14197579041739761</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9113783251220503E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>-1.2561140087837339</v>
+        <v>-1.4303210065639751</v>
       </c>
       <c r="C11" s="2">
-        <v>0.19325102182213991</v>
-      </c>
-      <c r="D11" s="6">
-        <f>C11*B11</f>
-        <v>-0.242745315722561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1.3374066484663039E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9129208236196762E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>1.2018499252215999</v>
+        <v>0.1321731879230181</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.118988037109375</v>
-      </c>
-      <c r="D12" s="6">
-        <f>C12*B12</f>
-        <v>-0.14300576350216732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.3925553299751413E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2414439807061497E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.41369184134729498</v>
+        <v>0.72795054608115506</v>
       </c>
       <c r="C13" s="2">
-        <v>0.23699364617452751</v>
-      </c>
-      <c r="D13" s="6">
-        <f>C13*B13</f>
-        <v>-9.8042337873549587E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.832763671875E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.1577656844283494E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>-0.84847973722204229</v>
+        <v>-0.3057328651885447</v>
       </c>
       <c r="C14" s="2">
-        <v>9.8198619686487174E-2</v>
-      </c>
-      <c r="D14" s="6">
-        <f>C14*B14</f>
-        <v>-8.3319539027157899E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2346165273534381</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.17299831283532E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.21486524429330581</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.8032445996189248E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>-0.80750913673912061</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>9.7875509686953632E-2</v>
       </c>
-      <c r="D15" s="6">
-        <f>C15*B15</f>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
         <v>-7.9035368335213366E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.3631692331295312</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-0.21486524429330581</v>
-      </c>
-      <c r="D16" s="6">
-        <f>C16*B16</f>
-        <v>-7.8032445996189248E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.3057328651885447</v>
+        <v>-0.84847973722204229</v>
       </c>
       <c r="C17" s="2">
-        <v>0.2346165273534381</v>
-      </c>
-      <c r="D17" s="6">
-        <f>C17*B17</f>
-        <v>-7.17299831283532E-2</v>
+        <v>9.8198619686487174E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.3319539027157899E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2">
-        <v>0.72795054608115506</v>
+        <v>-0.41369184134729498</v>
       </c>
       <c r="C18" s="2">
-        <v>-9.832763671875E-2</v>
-      </c>
-      <c r="D18" s="6">
-        <f>C18*B18</f>
-        <v>-7.1577656844283494E-2</v>
+        <v>0.23699364617452751</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>-9.8042337873549587E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>0.1321731879230181</v>
+        <v>1.2018499252215999</v>
       </c>
       <c r="C19" s="2">
-        <v>9.3925553299751413E-2</v>
-      </c>
-      <c r="D19" s="6">
-        <f>C19*B19</f>
-        <v>1.2414439807061497E-2</v>
+        <v>-0.118988037109375</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.14300576350216732</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>-1.4303210065639751</v>
+        <v>-1.2561140087837339</v>
       </c>
       <c r="C20" s="2">
-        <v>-1.3374066484663039E-2</v>
-      </c>
-      <c r="D20" s="6">
-        <f>C20*B20</f>
-        <v>1.9129208236196762E-2</v>
+        <v>0.19325102182213991</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.242745315722561</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>-0.20506160357077979</v>
+        <v>-0.60781146260992047</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.14197579041739761</v>
-      </c>
-      <c r="D21" s="6">
-        <f>C21*B21</f>
-        <v>2.9113783251220503E-2</v>
+        <v>0.593994140625</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.36103644739500401</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>0.13079278381171511</v>
+        <v>-1.1531270496674679</v>
       </c>
       <c r="C22" s="2">
-        <v>0.31566854306252012</v>
-      </c>
-      <c r="D22" s="6">
-        <f>C22*B22</f>
-        <v>4.1287167508935275E-2</v>
+        <v>0.54872581998673386</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.63275058587766453</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>-1.801492891961479</v>
+        <v>2.6794938887782518</v>
       </c>
       <c r="C23" s="2">
-        <v>-9.1927496960937327E-2</v>
-      </c>
-      <c r="D23" s="6">
-        <f>C23*B23</f>
-        <v>0.16560673235093906</v>
+        <v>-0.57926840474996422</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.5521461504898559</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2">
-        <v>1.1451018636548</v>
+        <v>3.8398386557582911</v>
       </c>
       <c r="C24" s="2">
-        <v>0.177734375</v>
-      </c>
-      <c r="D24" s="6">
-        <f>C24*B24</f>
-        <v>0.20352396404802109</v>
+        <v>-0.54152364905956252</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.0793634406661949</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,7 +915,7 @@
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:D24">
-      <sortCondition ref="D3:D24"/>
+      <sortCondition descending="1" ref="D3:D24"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
